--- a/data/trans_orig/P70A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P70A_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>53637</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44294</v>
+        <v>44309</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61991</v>
+        <v>61740</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.7112604792472245</v>
+        <v>0.7112604792472246</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.587372294750374</v>
+        <v>0.5875728267492154</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8220371878941175</v>
+        <v>0.8187090123460629</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -762,19 +762,19 @@
         <v>51124</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45293</v>
+        <v>44833</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55924</v>
+        <v>55777</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7852160351916179</v>
+        <v>0.7852160351916181</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6956556539164012</v>
+        <v>0.6886007560386767</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.858944389464766</v>
+        <v>0.85668912365058</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -783,19 +783,19 @@
         <v>104761</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94095</v>
+        <v>91856</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114275</v>
+        <v>113598</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.7455271046429486</v>
+        <v>0.7455271046429485</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6696267058421345</v>
+        <v>0.6536879113943423</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8132368479780989</v>
+        <v>0.8084207792400081</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>7737</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3363</v>
+        <v>2945</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14806</v>
+        <v>14527</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1025924322165801</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04459676171860566</v>
+        <v>0.03905436718036492</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1963365130837812</v>
+        <v>0.1926426033469606</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -833,19 +833,19 @@
         <v>6503</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3465</v>
+        <v>3423</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11324</v>
+        <v>11179</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.09988771507100891</v>
+        <v>0.09988771507100892</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05321915176943987</v>
+        <v>0.05257155476294553</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1739273392927071</v>
+        <v>0.1716971949427701</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -854,19 +854,19 @@
         <v>14240</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8747</v>
+        <v>8687</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22445</v>
+        <v>22630</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1013392264493438</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06224541722132484</v>
+        <v>0.06182382458878967</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1597265563649353</v>
+        <v>0.1610436421693316</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>14038</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7481</v>
+        <v>7179</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22483</v>
+        <v>22255</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1861470885361952</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09920235893873182</v>
+        <v>0.09520233952229909</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2981439837002365</v>
+        <v>0.2951207170438686</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>7481</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4173</v>
+        <v>4195</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12975</v>
+        <v>13043</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.114896249737373</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06408901972490098</v>
+        <v>0.06442625983722738</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.199280542976653</v>
+        <v>0.2003360892125288</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -925,19 +925,19 @@
         <v>21518</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13340</v>
+        <v>13797</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31648</v>
+        <v>32855</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1531336689077075</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0949341486491256</v>
+        <v>0.09818431335514427</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2252239839987315</v>
+        <v>0.2338090862211318</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>97263</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>84506</v>
+        <v>84929</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>107284</v>
+        <v>107713</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7415529108359826</v>
+        <v>0.7415529108359827</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6442948462195828</v>
+        <v>0.6475146184469971</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8179536667666505</v>
+        <v>0.8212304604475917</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>120</v>
@@ -1050,19 +1050,19 @@
         <v>92295</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>83848</v>
+        <v>83113</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>100817</v>
+        <v>99959</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7766367365311261</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7055630518334</v>
+        <v>0.6993777627849759</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8483506808688753</v>
+        <v>0.8411290065289962</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>196</v>
@@ -1071,19 +1071,19 @@
         <v>189558</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>175737</v>
+        <v>175497</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>202897</v>
+        <v>202206</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7582302132008438</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7029467721934867</v>
+        <v>0.701986283753667</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8115871170400364</v>
+        <v>0.8088233032298164</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>12271</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6858</v>
+        <v>6338</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20603</v>
+        <v>20577</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09355493738284762</v>
+        <v>0.09355493738284763</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05228634082807387</v>
+        <v>0.0483246829052984</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1570855276743445</v>
+        <v>0.1568801859989706</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -1121,19 +1121,19 @@
         <v>11860</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7241</v>
+        <v>7290</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18073</v>
+        <v>18581</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09979875708600849</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06092786271400481</v>
+        <v>0.06134229616548541</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1520819027208153</v>
+        <v>0.1563534989299367</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>29</v>
@@ -1142,19 +1142,19 @@
         <v>24131</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>16903</v>
+        <v>16193</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>33964</v>
+        <v>33399</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.09652297370836456</v>
+        <v>0.09652297370836457</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06761354498106233</v>
+        <v>0.06477270846508235</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1358546017395373</v>
+        <v>0.1335961350600874</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>21627</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13716</v>
+        <v>12929</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32817</v>
+        <v>31754</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1648921517811696</v>
+        <v>0.1648921517811697</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1045699728474388</v>
+        <v>0.09857708280708155</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2502009053455707</v>
+        <v>0.2420987584599902</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -1192,19 +1192,19 @@
         <v>14684</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7724</v>
+        <v>8452</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>23387</v>
+        <v>23616</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1235645063828653</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06499178615310282</v>
+        <v>0.07112489374210174</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1967936701576372</v>
+        <v>0.1987248187668329</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -1213,19 +1213,19 @@
         <v>36312</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25985</v>
+        <v>25289</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50068</v>
+        <v>49016</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1452468130907917</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1039391539179691</v>
+        <v>0.1011557486809207</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.200273434798554</v>
+        <v>0.1960631521487423</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>65024</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55063</v>
+        <v>54544</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>72235</v>
+        <v>72769</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7503721887470337</v>
+        <v>0.7503721887470336</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6354192246593463</v>
+        <v>0.6294366775553418</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.833581811608291</v>
+        <v>0.8397452545000251</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>97</v>
@@ -1338,19 +1338,19 @@
         <v>79151</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>70345</v>
+        <v>70835</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>84920</v>
+        <v>84675</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.844569399829076</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7505991366076277</v>
+        <v>0.7558281845206309</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9061177950558866</v>
+        <v>0.9035103121949204</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>146</v>
@@ -1359,19 +1359,19 @@
         <v>144176</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>132097</v>
+        <v>131423</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>155212</v>
+        <v>154097</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7993147815583393</v>
+        <v>0.7993147815583396</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7323445376795167</v>
+        <v>0.7286098485658308</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8604973915282805</v>
+        <v>0.8543129317311364</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>12744</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7379</v>
+        <v>6540</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21507</v>
+        <v>21073</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1470620728446034</v>
+        <v>0.1470620728446035</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08515466261089766</v>
+        <v>0.07546894958229415</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2481855305481762</v>
+        <v>0.243174657294744</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1409,19 +1409,19 @@
         <v>6863</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3492</v>
+        <v>3427</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13094</v>
+        <v>12478</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07322872562553145</v>
+        <v>0.07322872562553144</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03726505629585367</v>
+        <v>0.03657013190274593</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1397189962976665</v>
+        <v>0.1331490201118603</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -1430,19 +1430,19 @@
         <v>19607</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>12316</v>
+        <v>12594</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29796</v>
+        <v>28950</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1087000512164738</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06828067434613415</v>
+        <v>0.06982161313291717</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1651865159505792</v>
+        <v>0.1604990155154042</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>8888</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4364</v>
+        <v>4222</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16878</v>
+        <v>16130</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1025657384083628</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05035629253591332</v>
+        <v>0.0487207026507967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1947722839797014</v>
+        <v>0.1861362634428949</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1480,19 +1480,19 @@
         <v>7704</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3418</v>
+        <v>3802</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15383</v>
+        <v>15472</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.08220187454539264</v>
+        <v>0.08220187454539263</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03647506310655794</v>
+        <v>0.04056944414161445</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.164141346133689</v>
+        <v>0.1650875964863746</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -1501,19 +1501,19 @@
         <v>16592</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9347</v>
+        <v>10009</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26707</v>
+        <v>26966</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0919851672251867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0518209927198978</v>
+        <v>0.05549214861511012</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1480612594672692</v>
+        <v>0.1495007471563469</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>100423</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>88627</v>
+        <v>90633</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>108550</v>
+        <v>109177</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7926883141275939</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6995717193333649</v>
+        <v>0.7154071604357415</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.856837600378663</v>
+        <v>0.8617882596076794</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>117</v>
@@ -1626,19 +1626,19 @@
         <v>88716</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>80411</v>
+        <v>79759</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>96790</v>
+        <v>96988</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7101089031858817</v>
+        <v>0.7101089031858815</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6436343756126306</v>
+        <v>0.638413116887332</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7747336144149859</v>
+        <v>0.776321222071057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>210</v>
@@ -1647,19 +1647,19 @@
         <v>189139</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>175938</v>
+        <v>174491</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>201712</v>
+        <v>200854</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7516863248220067</v>
+        <v>0.7516863248220068</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6992193037016228</v>
+        <v>0.6934721375724495</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8016526258969714</v>
+        <v>0.798241484242955</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>14693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8394</v>
+        <v>7632</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>24886</v>
+        <v>23858</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1159808497998071</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0662573592435203</v>
+        <v>0.06024130158528412</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1964348866340694</v>
+        <v>0.188321362431051</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -1697,19 +1697,19 @@
         <v>17385</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11564</v>
+        <v>11913</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24905</v>
+        <v>24549</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1391561062425025</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09256006722523884</v>
+        <v>0.09535485463724933</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1993447042398254</v>
+        <v>0.1965003696439173</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>38</v>
@@ -1718,19 +1718,19 @@
         <v>32078</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>23618</v>
+        <v>22836</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43671</v>
+        <v>42866</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.127487732762297</v>
+        <v>0.1274877327622969</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09386420738062684</v>
+        <v>0.090757087266603</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1735577147826728</v>
+        <v>0.1703618543982222</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>11570</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6300</v>
+        <v>5843</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20198</v>
+        <v>19881</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.09133083607259887</v>
+        <v>0.09133083607259886</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04972492945009241</v>
+        <v>0.04612184541678616</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1594356617148735</v>
+        <v>0.1569264072661616</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>28</v>
@@ -1768,19 +1768,19 @@
         <v>18832</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>13290</v>
+        <v>12743</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26143</v>
+        <v>25744</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1507349905716159</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1063738269601064</v>
+        <v>0.1019970180552108</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.209254032833587</v>
+        <v>0.2060650915840789</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>39</v>
@@ -1789,19 +1789,19 @@
         <v>30402</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>21897</v>
+        <v>22364</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>40464</v>
+        <v>41656</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1208259424156962</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08702565739491831</v>
+        <v>0.0888788529072999</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1608147094510169</v>
+        <v>0.1655507730160362</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>316347</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>296687</v>
+        <v>296105</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>336206</v>
+        <v>335188</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7533601824342246</v>
+        <v>0.7533601824342245</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7065399209375233</v>
+        <v>0.705155538978731</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.800651592902668</v>
+        <v>0.7982283791511208</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>403</v>
@@ -1914,19 +1914,19 @@
         <v>311287</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>295572</v>
+        <v>295999</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>325395</v>
+        <v>326469</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7731930255181153</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7341589382417096</v>
+        <v>0.7352210494221351</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8082349379552026</v>
+        <v>0.8109025161142157</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>671</v>
@@ -1935,19 +1935,19 @@
         <v>627634</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>603940</v>
+        <v>601595</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>652608</v>
+        <v>650017</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7630678372013731</v>
+        <v>0.7630678372013728</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7342612209257195</v>
+        <v>0.7314094829899477</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7934312901474434</v>
+        <v>0.7902811489668338</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>47444</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>35268</v>
+        <v>34987</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>61683</v>
+        <v>63335</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1129858344849021</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0839891352245407</v>
+        <v>0.08331925361572995</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1468938984918446</v>
+        <v>0.1508269598305297</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>63</v>
@@ -1985,19 +1985,19 @@
         <v>42612</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>32828</v>
+        <v>32998</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>53911</v>
+        <v>53097</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1058413531813367</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08154080123439504</v>
+        <v>0.08196155007481186</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1339075765859358</v>
+        <v>0.1318847207260938</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>106</v>
@@ -2006,19 +2006,19 @@
         <v>90056</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>74676</v>
+        <v>75130</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>107263</v>
+        <v>107694</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1094887989014515</v>
+        <v>0.1094887989014514</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09079003467502113</v>
+        <v>0.09134218556939347</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1304089531368687</v>
+        <v>0.1309333082741544</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>56123</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42804</v>
+        <v>42890</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72096</v>
+        <v>73309</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1336539830808733</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1019345817901591</v>
+        <v>0.1021389132999431</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1716907081873514</v>
+        <v>0.1745801736555647</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -2056,19 +2056,19 @@
         <v>48701</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>37723</v>
+        <v>37081</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63073</v>
+        <v>61585</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1209656213005479</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0936979194344809</v>
+        <v>0.09210322614339148</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1566649472799097</v>
+        <v>0.1529697025503958</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>113</v>
@@ -2077,19 +2077,19 @@
         <v>104824</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>86657</v>
+        <v>86608</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>124600</v>
+        <v>126518</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1274433638971756</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1053557501763695</v>
+        <v>0.1052963510258097</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1514872190587232</v>
+        <v>0.1538182130259655</v>
       </c>
     </row>
     <row r="23">
